--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Oxt-Avpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Oxt-Avpr2.xlsx
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3674443333333333</v>
+        <v>0.4557103333333333</v>
       </c>
       <c r="H2">
-        <v>1.102333</v>
+        <v>1.367131</v>
       </c>
       <c r="I2">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
       <c r="J2">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N2">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O2">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P2">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q2">
-        <v>0.002424152748444444</v>
+        <v>0.02617220396055555</v>
       </c>
       <c r="R2">
-        <v>0.021817374736</v>
+        <v>0.235549835645</v>
       </c>
       <c r="S2">
-        <v>0.00971397823095173</v>
+        <v>0.08036944136598463</v>
       </c>
       <c r="T2">
-        <v>0.009713978230951735</v>
+        <v>0.08036944136598465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3674443333333333</v>
+        <v>0.4557103333333333</v>
       </c>
       <c r="H3">
-        <v>1.102333</v>
+        <v>1.367131</v>
       </c>
       <c r="I3">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
       <c r="J3">
-        <v>0.1390264053978416</v>
+        <v>0.1996401272959883</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.08782366666666667</v>
+        <v>0.08523033333333334</v>
       </c>
       <c r="N3">
-        <v>0.263471</v>
+        <v>0.255691</v>
       </c>
       <c r="O3">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="P3">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="Q3">
-        <v>0.03227030864922222</v>
+        <v>0.03884034361344444</v>
       </c>
       <c r="R3">
-        <v>0.290432777843</v>
+        <v>0.349563092521</v>
       </c>
       <c r="S3">
-        <v>0.1293124271668898</v>
+        <v>0.1192706859300036</v>
       </c>
       <c r="T3">
-        <v>0.1293124271668899</v>
+        <v>0.1192706859300036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +670,40 @@
         <v>2.028924</v>
       </c>
       <c r="I4">
-        <v>0.2558882030615162</v>
+        <v>0.2962807848215612</v>
       </c>
       <c r="J4">
-        <v>0.2558882030615163</v>
+        <v>0.2962807848215612</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N4">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O4">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P4">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q4">
-        <v>0.004461829311999999</v>
+        <v>0.03884149562</v>
       </c>
       <c r="R4">
-        <v>0.04015646380799999</v>
+        <v>0.34957346058</v>
       </c>
       <c r="S4">
-        <v>0.01787928291020546</v>
+        <v>0.1192742235045793</v>
       </c>
       <c r="T4">
-        <v>0.01787928291020546</v>
+        <v>0.1192742235045793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>2.028924</v>
       </c>
       <c r="I5">
-        <v>0.2558882030615162</v>
+        <v>0.2962807848215612</v>
       </c>
       <c r="J5">
-        <v>0.2558882030615163</v>
+        <v>0.2962807848215612</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.08782366666666667</v>
+        <v>0.08523033333333334</v>
       </c>
       <c r="N5">
-        <v>0.263471</v>
+        <v>0.255691</v>
       </c>
       <c r="O5">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="P5">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="Q5">
-        <v>0.05939584835600001</v>
+        <v>0.057641956276</v>
       </c>
       <c r="R5">
-        <v>0.534562635204</v>
+        <v>0.518777606484</v>
       </c>
       <c r="S5">
-        <v>0.2380089201513108</v>
+        <v>0.1770065613169819</v>
       </c>
       <c r="T5">
-        <v>0.2380089201513108</v>
+        <v>0.1770065613169819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.9146390000000001</v>
+        <v>0.3513206666666667</v>
       </c>
       <c r="H6">
-        <v>2.743917</v>
+        <v>1.053962</v>
       </c>
       <c r="I6">
-        <v>0.3460632288247102</v>
+        <v>0.1539085192605057</v>
       </c>
       <c r="J6">
-        <v>0.3460632288247103</v>
+        <v>0.1539085192605057</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N6">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O6">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P6">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q6">
-        <v>0.006034178362666667</v>
+        <v>0.02017693142111111</v>
       </c>
       <c r="R6">
-        <v>0.054307605264</v>
+        <v>0.18159238279</v>
       </c>
       <c r="S6">
-        <v>0.02417994381510703</v>
+        <v>0.06195919568861792</v>
       </c>
       <c r="T6">
-        <v>0.02417994381510704</v>
+        <v>0.06195919568861793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.9146390000000001</v>
+        <v>0.3513206666666667</v>
       </c>
       <c r="H7">
-        <v>2.743917</v>
+        <v>1.053962</v>
       </c>
       <c r="I7">
-        <v>0.3460632288247102</v>
+        <v>0.1539085192605057</v>
       </c>
       <c r="J7">
-        <v>0.3460632288247103</v>
+        <v>0.1539085192605057</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.08782366666666667</v>
+        <v>0.08523033333333334</v>
       </c>
       <c r="N7">
-        <v>0.263471</v>
+        <v>0.255691</v>
       </c>
       <c r="O7">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="P7">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="Q7">
-        <v>0.08032695065633334</v>
+        <v>0.02994317752688889</v>
       </c>
       <c r="R7">
-        <v>0.7229425559070001</v>
+        <v>0.269488597742</v>
       </c>
       <c r="S7">
-        <v>0.3218832850096032</v>
+        <v>0.09194932357188779</v>
       </c>
       <c r="T7">
-        <v>0.3218832850096033</v>
+        <v>0.09194932357188777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G8">
-        <v>0.13526</v>
+        <v>0.3449053333333333</v>
       </c>
       <c r="H8">
-        <v>0.40578</v>
+        <v>1.034716</v>
       </c>
       <c r="I8">
-        <v>0.05117703523557415</v>
+        <v>0.1510980542136751</v>
       </c>
       <c r="J8">
-        <v>0.05117703523557417</v>
+        <v>0.1510980542136751</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N8">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O8">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P8">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q8">
-        <v>0.0008923553066666667</v>
+        <v>0.01980848813555556</v>
       </c>
       <c r="R8">
-        <v>0.008031197759999999</v>
+        <v>0.17827639322</v>
       </c>
       <c r="S8">
-        <v>0.003575814283483842</v>
+        <v>0.06082778233574263</v>
       </c>
       <c r="T8">
-        <v>0.003575814283483843</v>
+        <v>0.06082778233574264</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>24</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G9">
-        <v>0.13526</v>
+        <v>0.3449053333333333</v>
       </c>
       <c r="H9">
-        <v>0.40578</v>
+        <v>1.034716</v>
       </c>
       <c r="I9">
-        <v>0.05117703523557415</v>
+        <v>0.1510980542136751</v>
       </c>
       <c r="J9">
-        <v>0.05117703523557417</v>
+        <v>0.1510980542136751</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08782366666666667</v>
+        <v>0.08523033333333334</v>
       </c>
       <c r="N9">
-        <v>0.263471</v>
+        <v>0.255691</v>
       </c>
       <c r="O9">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="P9">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="Q9">
-        <v>0.01187902915333334</v>
+        <v>0.02939639652844445</v>
       </c>
       <c r="R9">
-        <v>0.10691126238</v>
+        <v>0.264567568756</v>
       </c>
       <c r="S9">
-        <v>0.04760122095209031</v>
+        <v>0.09027027187793245</v>
       </c>
       <c r="T9">
-        <v>0.04760122095209032</v>
+        <v>0.09027027187793243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,46 +1036,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.549331</v>
+        <v>0.4544146666666666</v>
       </c>
       <c r="H10">
-        <v>1.647993</v>
+        <v>1.363244</v>
       </c>
       <c r="I10">
-        <v>0.2078451274803577</v>
+        <v>0.1990725144082698</v>
       </c>
       <c r="J10">
-        <v>0.2078451274803578</v>
+        <v>0.1990725144082698</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.006597333333333333</v>
+        <v>0.05743166666666667</v>
       </c>
       <c r="N10">
-        <v>0.019792</v>
+        <v>0.172295</v>
       </c>
       <c r="O10">
-        <v>0.06987146221003095</v>
+        <v>0.4025715794441874</v>
       </c>
       <c r="P10">
-        <v>0.06987146221003096</v>
+        <v>0.4025715794441875</v>
       </c>
       <c r="Q10">
-        <v>0.003624119717333333</v>
+        <v>0.02609779166444444</v>
       </c>
       <c r="R10">
-        <v>0.032617077456</v>
+        <v>0.23488012498</v>
       </c>
       <c r="S10">
-        <v>0.01452244297028288</v>
+        <v>0.08014093654926291</v>
       </c>
       <c r="T10">
-        <v>0.01452244297028289</v>
+        <v>0.08014093654926292</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.549331</v>
+        <v>0.4544146666666666</v>
       </c>
       <c r="H11">
-        <v>1.647993</v>
+        <v>1.363244</v>
       </c>
       <c r="I11">
-        <v>0.2078451274803577</v>
+        <v>0.1990725144082698</v>
       </c>
       <c r="J11">
-        <v>0.2078451274803578</v>
+        <v>0.1990725144082698</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.08782366666666667</v>
+        <v>0.08523033333333334</v>
       </c>
       <c r="N11">
-        <v>0.263471</v>
+        <v>0.255691</v>
       </c>
       <c r="O11">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="P11">
-        <v>0.9301285377899691</v>
+        <v>0.5974284205558126</v>
       </c>
       <c r="Q11">
-        <v>0.04824426263366667</v>
+        <v>0.03872991351155555</v>
       </c>
       <c r="R11">
-        <v>0.434198363703</v>
+        <v>0.348569221604</v>
       </c>
       <c r="S11">
-        <v>0.1933226845100748</v>
+        <v>0.1189315778590069</v>
       </c>
       <c r="T11">
-        <v>0.1933226845100749</v>
+        <v>0.1189315778590068</v>
       </c>
     </row>
   </sheetData>
